--- a/biology/Médecine/Médecine_préventive/Médecine_préventive.xlsx
+++ b/biology/Médecine/Médecine_préventive/Médecine_préventive.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M%C3%A9decine_pr%C3%A9ventive</t>
+          <t>Médecine_préventive</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La médecine préventive est la branche de la médecine consistant à donner des conseils d'hygiène au sens large (propreté, mais aussi diététique, encouragement à un sport ou une activité physique, ergonomie et manière de faire des efforts, prévention des comportements à risque, etc.) ainsi qu'au dépistage de maladie.
 La médecine préventive est en général pratiquée par des médecins généralistes du fait de leur proximité avec les populations. La médecine préventive fait également beaucoup appel aux médias pour des campagnes de sensibilisation, d'information et de conseils.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>M%C3%A9decine_pr%C3%A9ventive</t>
+          <t>Médecine_préventive</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Dépistages</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Parmi les dépistages fréquemment pratiqués, citons :
 l'hypertension artérielle ;
@@ -533,7 +547,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>M%C3%A9decine_pr%C3%A9ventive</t>
+          <t>Médecine_préventive</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -552,6 +566,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
